--- a/SAP.xlsx
+++ b/SAP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\CompanyResearchModels\Main\Information Technology\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\ModelsResearchMetrics\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027CB494-3EB4-496E-8B87-6AC33F60054F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582E72DE-CC40-4AE9-85A6-72763A57A0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{983FA30C-94E2-4089-A611-FBA6D94EA364}"/>
+    <workbookView xWindow="14475" yWindow="90" windowWidth="14235" windowHeight="15495" xr2:uid="{983FA30C-94E2-4089-A611-FBA6D94EA364}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -821,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11152582-EF2F-4A30-BD95-192203A6BB5A}">
   <dimension ref="K3:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -914,10 +914,10 @@
   <dimension ref="A1:AP55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="J33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N58" sqref="N58"/>
+      <selection pane="bottomRight" activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
